--- a/Colorado/AggregatedAmounts/CO_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Colorado/AggregatedAmounts/CO_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458A466C-1BB3-43CA-B231-6A4E7E57962A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBDDA02-2FED-4903-B2CC-AB8855908DEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="247">
   <si>
     <t>Name</t>
   </si>
@@ -746,9 +746,6 @@
   </si>
   <si>
     <t>Component ID</t>
-  </si>
-  <si>
-    <t>See Custom dict  derived from Compnent Name</t>
   </si>
   <si>
     <t>COag_RU +  counter</t>
@@ -1809,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1884,12 +1881,12 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="100" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -3085,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570AF19E-F26B-4187-B7FA-5CACB90F90DE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3381,7 +3378,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>11</v>
@@ -3527,7 +3524,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
@@ -3587,7 +3584,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>11</v>
@@ -3623,7 +3620,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H7" s="92" t="s">
         <v>11</v>
@@ -3653,7 +3650,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>11</v>
@@ -4177,7 +4174,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="110"/>
       <c r="G11" s="108"/>
@@ -4234,7 +4231,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F13" s="111"/>
       <c r="G13" s="112"/>
@@ -4298,7 +4295,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="106" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>11</v>
@@ -4324,7 +4321,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F16" s="84" t="s">
         <v>11</v>
@@ -4732,7 +4729,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F29" s="84" t="s">
         <v>11</v>
@@ -4770,7 +4767,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>11</v>
@@ -4828,7 +4825,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F32" s="84"/>
       <c r="G32" s="35"/>
@@ -4856,7 +4853,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F33" s="84"/>
       <c r="G33" s="35"/>

--- a/Colorado/AggregatedAmounts/CO_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Colorado/AggregatedAmounts/CO_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBDDA02-2FED-4903-B2CC-AB8855908DEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550E5AD4-B03F-4873-81CF-64CCD1B48DDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="3" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="250">
   <si>
     <t>Name</t>
   </si>
@@ -736,9 +736,6 @@
 PrevMoStreamflow</t>
   </si>
   <si>
-    <t>https://data.colorado.gov/</t>
-  </si>
-  <si>
     <t>COag_WS +  counter</t>
   </si>
   <si>
@@ -782,6 +779,18 @@
   </si>
   <si>
     <t>New WaterSourceType terms to add to db: Lake, Creek, River, Spring</t>
+  </si>
+  <si>
+    <t>CO_Supply</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>doug.stenzel@state.co.us</t>
+  </si>
+  <si>
+    <t>https://dwr.colorado.gov/about-us/contact-us/denver-office</t>
   </si>
 </sst>
 </file>
@@ -1881,12 +1890,12 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="100" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -1916,7 +1925,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2308,7 +2317,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2405,7 +2414,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="34"/>
@@ -2629,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="94"/>
@@ -2684,8 +2693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2802,7 +2811,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>159</v>
       </c>
@@ -2815,8 +2824,8 @@
       <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="93" t="s">
-        <v>160</v>
+      <c r="E5" s="95" t="s">
+        <v>248</v>
       </c>
       <c r="F5" s="84"/>
       <c r="G5" s="35"/>
@@ -2970,7 +2979,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>176</v>
       </c>
@@ -2984,7 +2993,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="F11" s="84"/>
       <c r="G11" s="35"/>
@@ -3072,9 +3081,10 @@
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" xr:uid="{BF92DA5A-F387-477D-938D-2E899B6FE833}"/>
     <hyperlink ref="E7" r:id="rId2" xr:uid="{810E3F34-E580-478A-9B3C-FCCA302FFF23}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{A19FF033-9E21-434B-BCF7-A3586A631936}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3082,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570AF19E-F26B-4187-B7FA-5CACB90F90DE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -3186,7 +3196,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3320,7 +3330,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>11</v>
@@ -3352,7 +3362,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H9" s="92" t="s">
         <v>11</v>
@@ -3524,7 +3534,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
@@ -3584,7 +3594,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>11</v>
@@ -3620,7 +3630,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H7" s="92" t="s">
         <v>11</v>
@@ -3650,7 +3660,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>11</v>
@@ -4174,7 +4184,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" s="110"/>
       <c r="G11" s="108"/>
@@ -4231,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" s="111"/>
       <c r="G13" s="112"/>
@@ -4295,7 +4305,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="106" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>11</v>
@@ -4321,7 +4331,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" s="84" t="s">
         <v>11</v>
@@ -4729,7 +4739,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F29" s="84" t="s">
         <v>11</v>
@@ -4767,7 +4777,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>11</v>
@@ -4825,7 +4835,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F32" s="84"/>
       <c r="G32" s="35"/>
@@ -4853,7 +4863,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F33" s="84"/>
       <c r="G33" s="35"/>

--- a/Colorado/AggregatedAmounts/CO_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Colorado/AggregatedAmounts/CO_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550E5AD4-B03F-4873-81CF-64CCD1B48DDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBADD76-3204-4037-B7A6-4186A8C7E7EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="3" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="253">
   <si>
     <t>Name</t>
   </si>
@@ -680,9 +680,6 @@
     <t>State:</t>
   </si>
   <si>
-    <t>Organizaitons:</t>
-  </si>
-  <si>
     <t>Data Links:</t>
   </si>
   <si>
@@ -778,9 +775,6 @@
     <t>New VariableSpecific terms to add to db: ReservoirStorage, ForecastedRunoff, PrevMoStreamflow</t>
   </si>
   <si>
-    <t>New WaterSourceType terms to add to db: Lake, Creek, River, Spring</t>
-  </si>
-  <si>
     <t>CO_Supply</t>
   </si>
   <si>
@@ -792,6 +786,21 @@
   <si>
     <t>https://dwr.colorado.gov/about-us/contact-us/denver-office</t>
   </si>
+  <si>
+    <t>Duplicate Component ID, makes it hard to use as WaterSourceNativeID.</t>
+  </si>
+  <si>
+    <t>Water Source type is 'Surface Water'.</t>
+  </si>
+  <si>
+    <t>Organizations:</t>
+  </si>
+  <si>
+    <t>CSV format for Component ID is autoformatting and removing the leading '0' from the entries.</t>
+  </si>
+  <si>
+    <t>Only going to use Component ID as water source identifier for now, temporary fix.  Water source names in these instances seem familiar enough.</t>
+  </si>
 </sst>
 </file>
 
@@ -800,7 +809,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,14 +907,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1456,9 +1457,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1486,7 +1484,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1498,6 +1496,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1813,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1837,82 +1836,103 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="97" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>219</v>
+        <v>213</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="101"/>
-      <c r="C7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="99"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="100"/>
+      <c r="C8" s="99"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="97" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="100" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="100"/>
+        <v>214</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="99"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>220</v>
+      <c r="B14" s="99" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>244</v>
+      <c r="B15" s="99" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="100" t="s">
-        <v>245</v>
-      </c>
+      <c r="B16" s="99" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="99" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="99" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="113" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="98"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="97"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
+      <c r="B21" s="99"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="99"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="99"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2028,7 +2048,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -2188,7 +2208,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>11</v>
@@ -2218,7 +2238,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" s="84" t="s">
         <v>11</v>
@@ -2250,7 +2270,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F11" s="84" t="s">
         <v>11</v>
@@ -2414,7 +2434,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="34"/>
@@ -2470,7 +2490,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="94"/>
@@ -2498,7 +2518,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="94"/>
@@ -2582,7 +2602,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="96" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="94"/>
@@ -2610,7 +2630,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="94"/>
@@ -2638,7 +2658,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="94"/>
@@ -2666,7 +2686,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="94"/>
@@ -2693,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2825,7 +2845,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F5" s="84"/>
       <c r="G5" s="35"/>
@@ -2993,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F11" s="84"/>
       <c r="G11" s="35"/>
@@ -3093,7 +3113,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3196,7 +3216,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3330,7 +3350,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>11</v>
@@ -3362,7 +3382,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H9" s="92" t="s">
         <v>11</v>
@@ -3430,7 +3450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E3782C-18A9-45D3-B018-D5B7F7291E9F}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3534,7 +3554,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
@@ -3561,7 +3581,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="104" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -3594,7 +3614,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>11</v>
@@ -3630,7 +3650,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H7" s="92" t="s">
         <v>11</v>
@@ -3660,7 +3680,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>11</v>
@@ -3718,7 +3738,7 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>11</v>
@@ -3898,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:K16431"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4125,11 +4145,11 @@
       <c r="D9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
+      <c r="E9" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
       <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
@@ -4154,10 +4174,10 @@
       <c r="D10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="109"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="22"/>
       <c r="H10" s="16" t="s">
         <v>11</v>
@@ -4184,10 +4204,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="108"/>
+        <v>237</v>
+      </c>
+      <c r="F11" s="109"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="16" t="s">
         <v>11</v>
       </c>
@@ -4212,10 +4232,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="108"/>
+        <v>224</v>
+      </c>
+      <c r="F12" s="109"/>
+      <c r="G12" s="107"/>
       <c r="H12" s="16" t="s">
         <v>11</v>
       </c>
@@ -4241,10 +4261,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="112"/>
+        <v>236</v>
+      </c>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111"/>
       <c r="H13" s="16" t="s">
         <v>11</v>
       </c>
@@ -4304,8 +4324,8 @@
       <c r="F15" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="106" t="s">
-        <v>236</v>
+      <c r="G15" s="105" t="s">
+        <v>235</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>11</v>
@@ -4331,7 +4351,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16" s="84" t="s">
         <v>11</v>
@@ -4456,7 +4476,7 @@
       <c r="D20" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="112">
         <v>44110</v>
       </c>
       <c r="F20" s="84"/>
@@ -4739,7 +4759,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F29" s="84" t="s">
         <v>11</v>
@@ -4777,7 +4797,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>11</v>
@@ -4835,7 +4855,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F32" s="84"/>
       <c r="G32" s="35"/>
@@ -4863,7 +4883,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F33" s="84"/>
       <c r="G33" s="35"/>

--- a/Colorado/AggregatedAmounts/CO_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Colorado/AggregatedAmounts/CO_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBADD76-3204-4037-B7A6-4186A8C7E7EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC770C7-5EEA-47C4-B275-43FB2747F52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -778,9 +778,6 @@
     <t>CO_Supply</t>
   </si>
   <si>
-    <t>Supply</t>
-  </si>
-  <si>
     <t>doug.stenzel@state.co.us</t>
   </si>
   <si>
@@ -800,6 +797,9 @@
   </si>
   <si>
     <t>Only going to use Component ID as water source identifier for now, temporary fix.  Water source names in these instances seem familiar enough.</t>
+  </si>
+  <si>
+    <t>Available Water Supply</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
         <v>217</v>
@@ -1894,22 +1894,22 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C19" s="98"/>
       <c r="D19" s="2"/>
@@ -2336,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2658,7 +2658,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="94"/>
@@ -2845,7 +2845,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="84"/>
       <c r="G5" s="35"/>
@@ -3013,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" s="84"/>
       <c r="G11" s="35"/>

--- a/Colorado/AggregatedAmounts/CO_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Colorado/AggregatedAmounts/CO_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC770C7-5EEA-47C4-B275-43FB2747F52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE76D5-91D1-44A8-B147-F18F358D4D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="254">
   <si>
     <t>Name</t>
   </si>
@@ -704,33 +704,19 @@
     <t>HUC</t>
   </si>
   <si>
-    <t>CO_SWSIModels</t>
-  </si>
-  <si>
     <t>The Surface Water Supply Index (SWSI) is used as an indicator of surface water supply conditions in Colorado. The SWSI compares the total volume of water in a basin or sub-basin against the volume available in the same month of historical years.</t>
   </si>
   <si>
     <t>Surface Water Supply Index</t>
   </si>
   <si>
-    <t>CO_Consumptive use</t>
-  </si>
-  <si>
     <t>Month</t>
-  </si>
-  <si>
-    <t>Cumuloative</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
     <t>CalendarYear</t>
-  </si>
-  <si>
-    <t>ReservoirStorage,
-ForecastedRunoff,
-PrevMoStreamflow</t>
   </si>
   <si>
     <t>COag_WS +  counter</t>
@@ -775,9 +761,6 @@
     <t>New VariableSpecific terms to add to db: ReservoirStorage, ForecastedRunoff, PrevMoStreamflow</t>
   </si>
   <si>
-    <t>CO_Supply</t>
-  </si>
-  <si>
     <t>doug.stenzel@state.co.us</t>
   </si>
   <si>
@@ -799,7 +782,29 @@
     <t>Only going to use Component ID as water source identifier for now, temporary fix.  Water source names in these instances seem familiar enough.</t>
   </si>
   <si>
-    <t>Available Water Supply</t>
+    <t>COag_M1</t>
+  </si>
+  <si>
+    <t>COag_V + counter</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
+  <si>
+    <t>ReservoirStorage_Monthly_Unspecified_Surface Water
+ForecastedRunoff_Monthly_Unspecified_Surface Water
+PrevMoStreamflow_Monthly_Unspecified_Surface Water</t>
+  </si>
+  <si>
+    <t>ReservoirStorage
+ForecastedRunoff
+PrevMoStreamflow</t>
+  </si>
+  <si>
+    <t>COag_O1</t>
+  </si>
+  <si>
+    <t>get from variable sheet</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1841,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
         <v>217</v>
@@ -1889,27 +1894,27 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="99" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="99" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="99" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="99" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="113" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C19" s="98"/>
       <c r="D19" s="2"/>
@@ -1944,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8657C7D5-E8C6-4B34-858E-8D6A434024B4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2048,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -2208,7 +2213,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>11</v>
@@ -2238,7 +2243,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F10" s="84" t="s">
         <v>11</v>
@@ -2334,9 +2339,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2346,7 +2351,7 @@
     <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.109375" style="2" bestFit="1" customWidth="1"/>
@@ -2434,7 +2439,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="34"/>
@@ -2490,7 +2495,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="94"/>
@@ -2518,7 +2523,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="94"/>
@@ -2602,7 +2607,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="96" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="94"/>
@@ -2630,7 +2635,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="94"/>
@@ -2644,7 +2649,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>151</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="94"/>
@@ -2686,7 +2691,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="94"/>
@@ -2699,6 +2704,15 @@
       <c r="J13" s="17" t="s">
         <v>156</v>
       </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J13">
@@ -2714,7 +2728,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2817,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="83"/>
@@ -2845,7 +2859,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F5" s="84"/>
       <c r="G5" s="35"/>
@@ -3013,7 +3027,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F11" s="84"/>
       <c r="G11" s="35"/>
@@ -3113,7 +3127,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3216,7 +3230,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3350,7 +3364,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>11</v>
@@ -3382,7 +3396,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H9" s="92" t="s">
         <v>11</v>
@@ -3554,7 +3568,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
@@ -3614,7 +3628,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>11</v>
@@ -3650,7 +3664,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H7" s="92" t="s">
         <v>11</v>
@@ -3680,7 +3694,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H8" s="92" t="s">
         <v>11</v>
@@ -3918,8 +3932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:K16431"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4146,7 +4160,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="102" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="F9" s="106"/>
       <c r="G9" s="107"/>
@@ -4175,7 +4189,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="F10" s="108"/>
       <c r="G10" s="22"/>
@@ -4204,7 +4218,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F11" s="109"/>
       <c r="G11" s="107"/>
@@ -4232,7 +4246,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="F12" s="109"/>
       <c r="G12" s="107"/>
@@ -4261,7 +4275,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F13" s="110"/>
       <c r="G13" s="111"/>
@@ -4325,7 +4339,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>11</v>
@@ -4351,7 +4365,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F16" s="84" t="s">
         <v>11</v>
@@ -4477,7 +4491,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="112">
-        <v>44110</v>
+        <v>44666</v>
       </c>
       <c r="F20" s="84"/>
       <c r="G20" s="35"/>
@@ -4759,7 +4773,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F29" s="84" t="s">
         <v>11</v>
@@ -4797,7 +4811,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>11</v>
@@ -4855,7 +4869,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F32" s="84"/>
       <c r="G32" s="35"/>
@@ -4883,7 +4897,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F33" s="84"/>
       <c r="G33" s="35"/>

--- a/Colorado/AggregatedAmounts/CO_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Colorado/AggregatedAmounts/CO_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE76D5-91D1-44A8-B147-F18F358D4D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63F499F-9A39-468A-B41C-44B1249785B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="WaterSources" sheetId="9" r:id="rId5"/>
     <sheet name="ReportingUnits" sheetId="4" r:id="rId6"/>
     <sheet name="AggregatedAmounts" sheetId="5" r:id="rId7"/>
+    <sheet name="misc" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="255">
   <si>
     <t>Name</t>
   </si>
@@ -743,9 +744,6 @@
     <t>get from ReportinugUnits sheet</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Report Year</t>
   </si>
   <si>
@@ -791,11 +789,6 @@
     <t>Cumulative</t>
   </si>
   <si>
-    <t>ReservoirStorage_Monthly_Unspecified_Surface Water
-ForecastedRunoff_Monthly_Unspecified_Surface Water
-PrevMoStreamflow_Monthly_Unspecified_Surface Water</t>
-  </si>
-  <si>
     <t>ReservoirStorage
 ForecastedRunoff
 PrevMoStreamflow</t>
@@ -806,6 +799,17 @@
   <si>
     <t>get from variable sheet</t>
   </si>
+  <si>
+    <t>ReservoirStorage_Monthly_Surface Water
+ForecastedRunoff_Monthly_Surface Water
+PrevMoStreamflow_Monthly_Surface Water</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
 </sst>
 </file>
 
@@ -814,7 +818,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,6 +923,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1171,7 +1182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1287,22 +1298,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1317,7 +1319,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1338,43 +1340,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1393,10 +1365,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1444,9 +1413,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1473,14 +1439,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1502,6 +1467,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1819,20 +1790,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="97" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="82" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="82" t="s">
         <v>212</v>
       </c>
       <c r="B1" t="s">
@@ -1840,104 +1811,104 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
-        <v>244</v>
+      <c r="A2" s="82" t="s">
+        <v>243</v>
       </c>
       <c r="B2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="100"/>
-      <c r="C7" s="99"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="84"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="99"/>
+      <c r="C8" s="84"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="99"/>
+      <c r="C13" s="84"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="84" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="99" t="s">
-        <v>239</v>
+      <c r="B15" s="84" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="84" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="84" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="84" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="99" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="97" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="99" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="113" t="s">
-        <v>246</v>
-      </c>
-      <c r="C19" s="98"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="99"/>
-      <c r="C20" s="98"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="99"/>
+      <c r="B21" s="84"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="99"/>
+      <c r="B22" s="84"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="99"/>
+      <c r="B23" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1949,7 +1920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8657C7D5-E8C6-4B34-858E-8D6A434024B4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1969,10 +1940,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1985,7 +1956,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2017,22 +1988,22 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="66" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="67">
         <v>11</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -2052,19 +2023,19 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="82" t="s">
-        <v>247</v>
+      <c r="E4" s="68" t="s">
+        <v>246</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="69" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="67" t="s">
         <v>106</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -2081,13 +2052,13 @@
       <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="44" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="35" t="s">
@@ -2096,7 +2067,7 @@
       <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="67" t="s">
         <v>108</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -2116,10 +2087,10 @@
       <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="35" t="s">
@@ -2128,7 +2099,7 @@
       <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="85">
+      <c r="I6" s="71">
         <v>0.5</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -2148,10 +2119,10 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="35" t="s">
@@ -2160,7 +2131,7 @@
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -2177,13 +2148,13 @@
       <c r="C8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
@@ -2192,7 +2163,7 @@
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="I8" s="70" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -2215,7 +2186,7 @@
       <c r="E9" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2245,7 +2216,7 @@
       <c r="E10" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="35" t="s">
@@ -2254,7 +2225,7 @@
       <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="67" t="s">
         <v>121</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -2274,10 +2245,10 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="35" t="s">
@@ -2286,7 +2257,7 @@
       <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="81" t="s">
+      <c r="I11" s="67" t="s">
         <v>124</v>
       </c>
       <c r="J11" s="17" t="s">
@@ -2303,13 +2274,13 @@
       <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="35" t="s">
@@ -2318,7 +2289,7 @@
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="81" t="s">
+      <c r="I12" s="67" t="s">
         <v>127</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -2341,13 +2312,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="2" bestFit="1" customWidth="1"/>
@@ -2377,7 +2348,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2409,16 +2380,16 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="86"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="67">
         <v>16</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -2438,15 +2409,15 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="46"/>
+      <c r="E4" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="43"/>
       <c r="G4" s="34"/>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="67" t="s">
         <v>129</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -2470,11 +2441,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="94"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="81">
+      <c r="I5" s="67">
         <v>1</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -2491,18 +2462,18 @@
       <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="44" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>223</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="94"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="67" t="s">
         <v>134</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -2519,18 +2490,18 @@
       <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="44" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="94"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="67" t="s">
         <v>137</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -2547,18 +2518,18 @@
       <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="44" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="94"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="67" t="s">
         <v>140</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -2575,18 +2546,18 @@
       <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>143</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="94"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="81" t="s">
+      <c r="I9" s="67" t="s">
         <v>143</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -2606,15 +2577,15 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="81" t="s">
         <v>224</v>
       </c>
       <c r="F10" s="26"/>
-      <c r="G10" s="94"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="67">
         <v>10</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -2631,18 +2602,18 @@
       <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="44" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>225</v>
       </c>
       <c r="F11" s="26"/>
-      <c r="G11" s="94"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="81" t="s">
+      <c r="I11" s="67" t="s">
         <v>149</v>
       </c>
       <c r="J11" s="17" t="s">
@@ -2659,18 +2630,18 @@
       <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>251</v>
+      <c r="E12" s="98" t="s">
+        <v>249</v>
       </c>
       <c r="F12" s="26"/>
-      <c r="G12" s="94"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="81" t="s">
+      <c r="I12" s="67" t="s">
         <v>152</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -2687,18 +2658,18 @@
       <c r="C13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>250</v>
+      <c r="E13" s="99" t="s">
+        <v>252</v>
       </c>
       <c r="F13" s="26"/>
-      <c r="G13" s="94"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="81" t="s">
+      <c r="I13" s="67" t="s">
         <v>155</v>
       </c>
       <c r="J13" s="17" t="s">
@@ -2763,7 +2734,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2795,16 +2766,16 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="74" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="24" t="s">
@@ -2830,11 +2801,11 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>252</v>
+      <c r="E4" s="43" t="s">
+        <v>250</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="83"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
@@ -2858,10 +2829,10 @@
       <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="84"/>
+      <c r="E5" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="70"/>
       <c r="G5" s="35"/>
       <c r="H5" s="24" t="s">
         <v>11</v>
@@ -2886,10 +2857,10 @@
       <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="84"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="35"/>
       <c r="H6" s="24" t="s">
         <v>11</v>
@@ -2914,10 +2885,10 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="84"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="35"/>
       <c r="H7" s="24" t="s">
         <v>11</v>
@@ -2945,7 +2916,7 @@
       <c r="E8" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="84"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="35"/>
       <c r="H8" s="24" t="s">
         <v>11</v>
@@ -2970,10 +2941,10 @@
       <c r="D9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="35"/>
       <c r="H9" s="24" t="s">
         <v>11</v>
@@ -2998,10 +2969,10 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="84"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="35"/>
       <c r="H10" s="24" t="s">
         <v>11</v>
@@ -3026,10 +2997,10 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" s="84"/>
+      <c r="E11" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="70"/>
       <c r="G11" s="35"/>
       <c r="H11" s="24" t="s">
         <v>11</v>
@@ -3057,7 +3028,7 @@
       <c r="E12" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="84"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="35"/>
       <c r="H12" s="24" t="s">
         <v>11</v>
@@ -3126,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570AF19E-F26B-4187-B7FA-5CACB90F90DE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3194,22 +3165,22 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="67">
         <v>34658</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -3235,13 +3206,13 @@
       <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="67" t="s">
         <v>182</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -3264,16 +3235,16 @@
       <c r="E5" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -3296,16 +3267,16 @@
       <c r="E6" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="70" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -3322,22 +3293,22 @@
       <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="67" t="s">
         <v>187</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -3360,16 +3331,16 @@
       <c r="E8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="67" t="s">
         <v>190</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -3389,19 +3360,19 @@
       <c r="D9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="67">
         <v>17839</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -3430,10 +3401,10 @@
       <c r="G10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="67" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -3462,35 +3433,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E3782C-18A9-45D3-B018-D5B7F7291E9F}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="116.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="157.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3522,17 +3493,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -3544,17 +3515,17 @@
       <c r="G3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="56" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
@@ -3572,19 +3543,17 @@
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>64</v>
       </c>
@@ -3595,7 +3564,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="88" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -3604,19 +3573,17 @@
       <c r="G5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="59" t="s">
         <v>102</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-    </row>
-    <row r="6" spans="1:12" s="36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" s="36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>66</v>
       </c>
@@ -3628,7 +3595,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>11</v>
@@ -3636,19 +3603,17 @@
       <c r="G6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="61" t="s">
         <v>103</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>52</v>
       </c>
@@ -3666,19 +3631,17 @@
       <c r="G7" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="57" t="s">
         <v>98</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>50</v>
       </c>
@@ -3694,21 +3657,19 @@
         <v>11</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="H8" s="92" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="57">
         <v>48001</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="1:12" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>59</v>
       </c>
@@ -3728,19 +3689,17 @@
       <c r="G9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-    </row>
-    <row r="10" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>54</v>
       </c>
@@ -3760,19 +3719,17 @@
       <c r="G10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>56</v>
       </c>
@@ -3792,19 +3749,17 @@
       <c r="G11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="92" t="s">
+      <c r="H11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-    </row>
-    <row r="12" spans="1:12" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>62</v>
       </c>
@@ -3824,98 +3779,61 @@
       <c r="G12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="92" t="s">
+      <c r="H12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="57" t="s">
         <v>101</v>
       </c>
       <c r="J12" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J13" s="44"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J14" s="44"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J15" s="44"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J16" s="44"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="41"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="23"/>
       <c r="D20" s="2"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="23"/>
       <c r="D21" s="2"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="23"/>
       <c r="D22" s="2"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="23"/>
       <c r="D23" s="2"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="23"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="23"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="23"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="23"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="23"/>
       <c r="D28" s="2"/>
     </row>
@@ -3932,13 +3850,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:K16431"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="23" bestFit="1" customWidth="1"/>
@@ -3952,32 +3870,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="52" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -3991,16 +3909,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="53" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14"/>
@@ -4012,21 +3930,21 @@
       <c r="I3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="45" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="19"/>
@@ -4038,21 +3956,21 @@
       <c r="I4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="45" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="19"/>
@@ -4064,21 +3982,21 @@
       <c r="I5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="45" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="19"/>
@@ -4090,21 +4008,21 @@
       <c r="I6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="45" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="19"/>
@@ -4116,21 +4034,21 @@
       <c r="I7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="19"/>
@@ -4142,28 +4060,28 @@
       <c r="I8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
+      <c r="E9" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
@@ -4176,22 +4094,22 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="101" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="108"/>
+      <c r="E10" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="92"/>
       <c r="G10" s="22"/>
       <c r="H10" s="16" t="s">
         <v>11</v>
@@ -4205,23 +4123,23 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="107"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="16" t="s">
         <v>11</v>
       </c>
@@ -4233,23 +4151,23 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="107"/>
+        <v>251</v>
+      </c>
+      <c r="F12" s="93"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="16" t="s">
         <v>11</v>
       </c>
@@ -4262,23 +4180,23 @@
       <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="111"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="16" t="s">
         <v>11</v>
       </c>
@@ -4302,10 +4220,10 @@
       <c r="D14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="35" t="s">
@@ -4317,7 +4235,7 @@
       <c r="I14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4332,13 +4250,13 @@
       <c r="D15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="105" t="s">
+      <c r="G15" s="89" t="s">
         <v>231</v>
       </c>
       <c r="H15" s="16" t="s">
@@ -4347,7 +4265,7 @@
       <c r="I15" s="27">
         <v>125483.1563</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="45" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4364,10 +4282,10 @@
       <c r="D16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="84" t="s">
-        <v>234</v>
-      </c>
-      <c r="F16" s="84" t="s">
+      <c r="E16" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="35" t="s">
@@ -4377,7 +4295,7 @@
       <c r="I16" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="45" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4394,10 +4312,10 @@
       <c r="D17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="35" t="s">
@@ -4409,7 +4327,7 @@
       <c r="I17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="45" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4423,13 +4341,13 @@
       <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="35" t="s">
@@ -4441,7 +4359,7 @@
       <c r="I18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="J18" s="45" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4455,13 +4373,13 @@
       <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F19" s="84" t="s">
+      <c r="F19" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="35" t="s">
@@ -4473,7 +4391,7 @@
       <c r="I19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="48" t="s">
+      <c r="J19" s="45" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4487,13 +4405,13 @@
       <c r="C20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="112">
-        <v>44666</v>
-      </c>
-      <c r="F20" s="84"/>
+      <c r="E20" s="96">
+        <v>44910</v>
+      </c>
+      <c r="F20" s="70"/>
       <c r="G20" s="35"/>
       <c r="H20" s="16" t="s">
         <v>11</v>
@@ -4501,7 +4419,7 @@
       <c r="I20" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="45" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4515,13 +4433,13 @@
       <c r="C21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F21" s="84" t="s">
+      <c r="F21" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="35" t="s">
@@ -4533,7 +4451,7 @@
       <c r="I21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="45" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4550,10 +4468,10 @@
       <c r="D22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F22" s="84" t="s">
+      <c r="F22" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="35" t="s">
@@ -4565,7 +4483,7 @@
       <c r="I22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4582,10 +4500,10 @@
       <c r="D23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="35" t="s">
@@ -4597,7 +4515,7 @@
       <c r="I23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="45" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4614,10 +4532,10 @@
       <c r="D24" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="84" t="s">
+      <c r="E24" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="84" t="s">
+      <c r="F24" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="35" t="s">
@@ -4629,7 +4547,7 @@
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="48" t="s">
+      <c r="J24" s="45" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4643,13 +4561,13 @@
       <c r="C25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="35" t="s">
@@ -4661,7 +4579,7 @@
       <c r="I25" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="45" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4678,10 +4596,10 @@
       <c r="D26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F26" s="84" t="s">
+      <c r="F26" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="35" t="s">
@@ -4693,7 +4611,7 @@
       <c r="I26" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="48" t="s">
+      <c r="J26" s="45" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4710,10 +4628,10 @@
       <c r="D27" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="84" t="s">
+      <c r="E27" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F27" s="84" t="s">
+      <c r="F27" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="35" t="s">
@@ -4725,7 +4643,7 @@
       <c r="I27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="48" t="s">
+      <c r="J27" s="45" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4739,13 +4657,13 @@
       <c r="C28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="84" t="s">
+      <c r="E28" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F28" s="84" t="s">
+      <c r="F28" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="35" t="s">
@@ -4757,7 +4675,7 @@
       <c r="I28" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="48"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -4769,13 +4687,13 @@
       <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="84" t="s">
-        <v>234</v>
-      </c>
-      <c r="F29" s="84" t="s">
+      <c r="E29" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="35" t="s">
@@ -4787,7 +4705,7 @@
       <c r="I29" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="45" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4801,17 +4719,17 @@
       <c r="C30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="84" t="s">
+      <c r="F30" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>11</v>
@@ -4819,7 +4737,7 @@
       <c r="I30" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="J30" s="48" t="s">
+      <c r="J30" s="45" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4833,13 +4751,13 @@
       <c r="C31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="84" t="s">
+      <c r="E31" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F31" s="84" t="s">
+      <c r="F31" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="35" t="s">
@@ -4851,7 +4769,7 @@
       <c r="I31" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="48" t="s">
+      <c r="J31" s="45" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4865,13 +4783,13 @@
       <c r="C32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="44" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F32" s="84"/>
+        <v>235</v>
+      </c>
+      <c r="F32" s="70"/>
       <c r="G32" s="35"/>
       <c r="H32" s="16" t="s">
         <v>11</v>
@@ -4879,7 +4797,7 @@
       <c r="I32" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="J32" s="48" t="s">
+      <c r="J32" s="45" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4893,13 +4811,13 @@
       <c r="C33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="44" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F33" s="84"/>
+        <v>235</v>
+      </c>
+      <c r="F33" s="70"/>
       <c r="G33" s="35"/>
       <c r="H33" s="16" t="s">
         <v>11</v>
@@ -4907,25 +4825,25 @@
       <c r="I33" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="J33" s="48" t="s">
+      <c r="J33" s="45" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I34" s="27"/>
-      <c r="J34" s="48"/>
+      <c r="J34" s="45"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I35" s="27"/>
-      <c r="J35" s="48"/>
+      <c r="J35" s="45"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I36" s="27"/>
-      <c r="J36" s="48"/>
+      <c r="J36" s="45"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I37" s="27"/>
-      <c r="J37" s="48"/>
+      <c r="J37" s="45"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I38" s="27"/>
@@ -4957,7 +4875,7 @@
     <row r="51" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51" s="2"/>
-      <c r="D51" s="45"/>
+      <c r="D51" s="42"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52"/>
@@ -5005,12 +4923,12 @@
     <row r="66" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66" s="2"/>
-      <c r="D66" s="45"/>
+      <c r="D66" s="42"/>
     </row>
     <row r="67" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67" s="2"/>
-      <c r="D67" s="45"/>
+      <c r="D67" s="42"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68"/>
@@ -54132,4 +54050,18 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D1B728-3FED-4B0F-BB7F-1252CAA4160C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>